--- a/output/tables/tab_species_traits.xlsx
+++ b/output/tables/tab_species_traits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limaf\Desktop\Mestrado\Masters-dissertation\output\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limaf\Desktop\Mestrado\Dissertation\output\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CCE7E96E-99E3-4D32-A030-EA07694BDB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218674A-6BA6-4296-9F45-2A869E74F7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D84ECC-4808-48D4-A4C0-DD5F15801D23}"/>
   </bookViews>
@@ -1142,11 +1142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB03B5A1-3214-4DDA-AF2C-4CEA125236C8}">
   <dimension ref="C3:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="31.109375" style="2" customWidth="1"/>
@@ -1158,7 +1158,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>63</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
         <v>42</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>49</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
         <v>58</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>59</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>60</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>61</v>
       </c>
